--- a/target/test-classes/com/testData/Jombone_LoginData.xlsx
+++ b/target/test-classes/com/testData/Jombone_LoginData.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidhy\eclipse-workspace\jombone\src\test\java\com\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF7D1E-5151-4267-B666-4D6A6496CF3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -32,56 +26,35 @@
     <t>res</t>
   </si>
   <si>
-    <t>Valid</t>
+    <t>anithaperumalsamy@gmail.com</t>
   </si>
   <si>
-    <t>genlab@mailinator.com</t>
+    <t>anitha17068</t>
   </si>
   <si>
-    <t>jSw7X7+}D^</t>
+    <t>InValid</t>
   </si>
   <si>
-    <t>vidhyaprk@gmail.com</t>
+    <t>staff@mailinator.com</t>
   </si>
   <si>
-    <t>Vidhya@123</t>
+    <t>5X[*GbpQ&gt;#</t>
   </si>
   <si>
-    <t>Invalid-No emailId</t>
-  </si>
-  <si>
-    <t>Invalid-No password</t>
-  </si>
-  <si>
-    <t>Vidhya@12</t>
-  </si>
-  <si>
-    <t>vidhyapk@gmail.com</t>
-  </si>
-  <si>
-    <t>Invalid pswd</t>
-  </si>
-  <si>
-    <t>Invalid email</t>
-  </si>
-  <si>
-    <t>Invalid email-password</t>
-  </si>
-  <si>
-    <t>genla@mailinator.com</t>
-  </si>
-  <si>
-    <t>jSw7X7}D^</t>
-  </si>
-  <si>
-    <t>Row#0</t>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +71,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,6 +86,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -114,13 +149,88 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,12 +239,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -157,37 +447,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -445,211 +1015,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{662EAA21-1BA4-4D4A-8136-AB25B3307E2C}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{4BE7C8E1-6A46-43E6-A75A-984D95ABE9EC}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{4350893C-665C-405F-BDE3-E196031AA98D}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{F167FB76-EE08-4A59-B6C6-6231193F4392}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{BE8D64EE-6499-4BAF-B60F-63799AE15848}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{66746CE4-5B6C-4A20-A587-ED021EB6674E}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{CE99F4A3-9B9D-430C-990B-19EA6E418245}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{222CEFDF-B0F9-46CD-91BA-E3929C079785}"/>
-    <hyperlink ref="A7" r:id="rId9" xr:uid="{C2D876CF-41B0-444F-AA9F-0DCABB5B3281}"/>
-    <hyperlink ref="B7" r:id="rId10" xr:uid="{D672D349-15C4-4415-AE70-6350B71BD09F}"/>
-    <hyperlink ref="A8" r:id="rId11" xr:uid="{9BB70F03-5B9F-464D-85D1-88F13C959EC6}"/>
-    <hyperlink ref="A9" r:id="rId12" xr:uid="{677A3F18-4895-453C-8091-BD1C6AF6F9A0}"/>
-    <hyperlink ref="A10" r:id="rId13" xr:uid="{1C328AE2-70EE-4171-AB92-D19EA5C466BA}"/>
-    <hyperlink ref="A11" r:id="rId14" xr:uid="{A01842AD-DCAA-4A9E-8331-C2B159F007D2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.5">
+    <row r="1" ht="18" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,21 +1045,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="18" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="anithaperumalsamy@gmail.com" tooltip="mailto:anithaperumalsamy@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="30.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="32.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="staff@mailinator.com" tooltip="mailto:staff@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>